--- a/OnBoard/output/trust/catch/Catch_Trust_14.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_14.xlsx
@@ -2540,7 +2540,7 @@
         <v>0.353</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I53">
         <v>18.89404255319149</v>
@@ -2622,7 +2622,7 @@
         <v>0.033</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>18.89404255319149</v>
@@ -3360,7 +3360,7 @@
         <v>0.043</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I73">
         <v>18.89404255319149</v>
@@ -3483,7 +3483,7 @@
         <v>0.495</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I76">
         <v>18.89404255319149</v>
@@ -3524,7 +3524,7 @@
         <v>0.304</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I77">
         <v>18.89404255319149</v>
